--- a/simulation_data/two_step_algorithm/2s_error_level_9_percent_water_40.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_9_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.0490481533603</v>
+        <v>95.41811623534559</v>
       </c>
       <c r="D2" t="n">
-        <v>14.37837681147065</v>
+        <v>10.76531955634026</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>90.85440212327103</v>
+        <v>91.52940173270997</v>
       </c>
       <c r="D3" t="n">
-        <v>12.50443387081464</v>
+        <v>12.63555773533742</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>89.48431319215375</v>
+        <v>90.38647188532084</v>
       </c>
       <c r="D4" t="n">
-        <v>13.68829708581054</v>
+        <v>10.89334848572125</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>88.93760486845622</v>
+        <v>89.51841181275503</v>
       </c>
       <c r="D5" t="n">
-        <v>12.15439203890442</v>
+        <v>11.2819680032173</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>91.80583935108763</v>
+        <v>88.57728536855817</v>
       </c>
       <c r="D6" t="n">
-        <v>12.31330106214958</v>
+        <v>11.75206330983025</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.23204774772111</v>
+        <v>86.97980999479267</v>
       </c>
       <c r="D7" t="n">
-        <v>11.09776472291652</v>
+        <v>12.66681010914465</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>88.31052403786725</v>
+        <v>87.59044617785845</v>
       </c>
       <c r="D8" t="n">
-        <v>14.30982249056757</v>
+        <v>11.10467457748857</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>85.19163595035553</v>
+        <v>84.73346444990129</v>
       </c>
       <c r="D9" t="n">
-        <v>13.48670350836615</v>
+        <v>11.77983329691237</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>85.89682483513883</v>
+        <v>83.79154662824736</v>
       </c>
       <c r="D10" t="n">
-        <v>12.40376266069578</v>
+        <v>11.48786697522093</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>84.3896305898986</v>
+        <v>82.9298552832708</v>
       </c>
       <c r="D11" t="n">
-        <v>13.3873543891757</v>
+        <v>10.22016059716991</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.89969320808376</v>
+        <v>83.38025363081807</v>
       </c>
       <c r="D12" t="n">
-        <v>12.98142590860374</v>
+        <v>14.23744608780904</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>77.82995331949662</v>
+        <v>81.69956833763057</v>
       </c>
       <c r="D13" t="n">
-        <v>13.16284894994043</v>
+        <v>12.34613942596068</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.30791984014394</v>
+        <v>77.72154069744747</v>
       </c>
       <c r="D14" t="n">
-        <v>12.09406574009677</v>
+        <v>12.73435845463115</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.08651554040584</v>
+        <v>78.58932218570608</v>
       </c>
       <c r="D15" t="n">
-        <v>13.81742104352114</v>
+        <v>12.02632854402829</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>79.13116598416156</v>
+        <v>77.32785999031763</v>
       </c>
       <c r="D16" t="n">
-        <v>12.61526410844796</v>
+        <v>13.02042506980594</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>76.30107070789545</v>
+        <v>76.33190390335236</v>
       </c>
       <c r="D17" t="n">
-        <v>12.97860858393126</v>
+        <v>10.03105952071612</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.84628175217892</v>
+        <v>74.58654631144722</v>
       </c>
       <c r="D18" t="n">
-        <v>11.34825554094298</v>
+        <v>12.99187423829853</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>76.38514102481153</v>
+        <v>72.27110546262705</v>
       </c>
       <c r="D19" t="n">
-        <v>12.53796076763917</v>
+        <v>11.55662499461944</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.88511902857458</v>
+        <v>73.91102659212893</v>
       </c>
       <c r="D20" t="n">
-        <v>11.22223573283818</v>
+        <v>11.43191579753246</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>73.8237326408759</v>
+        <v>71.79337564237717</v>
       </c>
       <c r="D21" t="n">
-        <v>12.47704928566995</v>
+        <v>13.0246650788678</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.94452483833807</v>
+        <v>72.77622722171776</v>
       </c>
       <c r="D22" t="n">
-        <v>12.79170251968371</v>
+        <v>10.38916722775368</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>72.75025010382896</v>
+        <v>69.49390343605317</v>
       </c>
       <c r="D23" t="n">
-        <v>12.42771249773747</v>
+        <v>10.78289097839448</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.96311431704078</v>
+        <v>69.53670585578881</v>
       </c>
       <c r="D24" t="n">
-        <v>13.55592018445404</v>
+        <v>12.91372533378301</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>69.99449639159704</v>
+        <v>68.03163093782982</v>
       </c>
       <c r="D25" t="n">
-        <v>11.89418160676129</v>
+        <v>12.7741469521414</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>64.75671758889978</v>
+        <v>66.9424196306536</v>
       </c>
       <c r="D26" t="n">
-        <v>11.45548210073438</v>
+        <v>11.31039975129274</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.38099148725161</v>
+        <v>66.4248887721985</v>
       </c>
       <c r="D27" t="n">
-        <v>13.86290526245605</v>
+        <v>11.25028135832086</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.5174929090809</v>
+        <v>65.23226648086008</v>
       </c>
       <c r="D28" t="n">
-        <v>14.13720028673874</v>
+        <v>12.54008140084938</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>66.21222354148168</v>
+        <v>62.3807587057921</v>
       </c>
       <c r="D29" t="n">
-        <v>12.03965993006674</v>
+        <v>12.21334437757203</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.84964083011972</v>
+        <v>61.42987457865362</v>
       </c>
       <c r="D30" t="n">
-        <v>12.25879960098506</v>
+        <v>12.36408261228445</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.56117299294123</v>
+        <v>60.90766339103399</v>
       </c>
       <c r="D31" t="n">
-        <v>11.72581619334922</v>
+        <v>13.14372553131397</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.96078819360802</v>
+        <v>58.21244461127309</v>
       </c>
       <c r="D32" t="n">
-        <v>10.98233661351044</v>
+        <v>10.89179146945703</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.00318013216917</v>
+        <v>60.18595315166889</v>
       </c>
       <c r="D33" t="n">
-        <v>10.4198223672803</v>
+        <v>13.05968991163001</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.44104141692207</v>
+        <v>57.37262311014416</v>
       </c>
       <c r="D34" t="n">
-        <v>12.80955454367118</v>
+        <v>12.7884791865528</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.43225335595996</v>
+        <v>56.08391726483431</v>
       </c>
       <c r="D35" t="n">
-        <v>11.96033032701991</v>
+        <v>12.55262448920687</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>58.41285689271429</v>
+        <v>57.84140836982679</v>
       </c>
       <c r="D36" t="n">
-        <v>11.83696553164012</v>
+        <v>11.0874656862456</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>57.40130120162328</v>
+        <v>56.31298353047304</v>
       </c>
       <c r="D37" t="n">
-        <v>12.50963110009446</v>
+        <v>11.0141639978747</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.1102114647836</v>
+        <v>54.97347718356368</v>
       </c>
       <c r="D38" t="n">
-        <v>11.28891694248672</v>
+        <v>12.81014254815194</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.12100821466386</v>
+        <v>55.73929043403167</v>
       </c>
       <c r="D39" t="n">
-        <v>11.52568047062776</v>
+        <v>12.135373039579</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>54.43434580823245</v>
+        <v>52.21346211517881</v>
       </c>
       <c r="D40" t="n">
-        <v>12.97872745372753</v>
+        <v>12.40615721735206</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>52.12737662270925</v>
+        <v>50.62511272390584</v>
       </c>
       <c r="D41" t="n">
-        <v>12.17438183203048</v>
+        <v>10.17629125164729</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.82528282593069</v>
+        <v>50.33263482815076</v>
       </c>
       <c r="D42" t="n">
-        <v>11.5461274700833</v>
+        <v>13.24030888619824</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.31524756831193</v>
+        <v>49.00643610103689</v>
       </c>
       <c r="D43" t="n">
-        <v>11.37835844397161</v>
+        <v>12.70404987205588</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.35596187864837</v>
+        <v>47.16165289175034</v>
       </c>
       <c r="D44" t="n">
-        <v>12.49849487484797</v>
+        <v>12.13354789305654</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.38109566601157</v>
+        <v>49.73078934071899</v>
       </c>
       <c r="D45" t="n">
-        <v>12.95541382007062</v>
+        <v>11.65470797589208</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.60562492755258</v>
+        <v>47.28610366002955</v>
       </c>
       <c r="D46" t="n">
-        <v>12.88664039039561</v>
+        <v>12.3274551910125</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.9900404086233</v>
+        <v>45.56632137469323</v>
       </c>
       <c r="D47" t="n">
-        <v>12.67936401834704</v>
+        <v>11.50517101189252</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>46.75389349023784</v>
+        <v>45.01938146290617</v>
       </c>
       <c r="D48" t="n">
-        <v>11.80288343988339</v>
+        <v>13.13720499358245</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>45.76969440234113</v>
+        <v>41.68530615464228</v>
       </c>
       <c r="D49" t="n">
-        <v>11.9722322615005</v>
+        <v>11.42785180106141</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.31404343555791</v>
+        <v>43.65305301275015</v>
       </c>
       <c r="D50" t="n">
-        <v>11.44391352223761</v>
+        <v>12.7785835341001</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.71902414107308</v>
+        <v>39.12124925878313</v>
       </c>
       <c r="D51" t="n">
-        <v>11.63473044833454</v>
+        <v>9.855593479243034</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.45448258339493</v>
+        <v>38.81446959574172</v>
       </c>
       <c r="D52" t="n">
-        <v>11.48518894379547</v>
+        <v>11.81712322855171</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.84630194817625</v>
+        <v>38.44724093453151</v>
       </c>
       <c r="D53" t="n">
-        <v>12.4550692863881</v>
+        <v>12.05050025146335</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>39.97187507893462</v>
+        <v>39.51274661061234</v>
       </c>
       <c r="D54" t="n">
-        <v>12.77229595011284</v>
+        <v>12.42166468152508</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.71220018007283</v>
+        <v>36.50771409904799</v>
       </c>
       <c r="D55" t="n">
-        <v>12.56167663140507</v>
+        <v>12.53857236738056</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>37.38983783683675</v>
+        <v>36.39975541932242</v>
       </c>
       <c r="D56" t="n">
-        <v>11.99894835563431</v>
+        <v>11.80244138658293</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>36.70764188683558</v>
+        <v>34.18048447330708</v>
       </c>
       <c r="D57" t="n">
-        <v>13.34988089906967</v>
+        <v>12.39477562776444</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.70731266605644</v>
+        <v>33.76354059550432</v>
       </c>
       <c r="D58" t="n">
-        <v>11.99884599661434</v>
+        <v>12.44463250872861</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>34.43767167456077</v>
+        <v>31.93453710901586</v>
       </c>
       <c r="D59" t="n">
-        <v>10.92285147454059</v>
+        <v>12.4969126580854</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>29.91258212904646</v>
+        <v>31.88438590141828</v>
       </c>
       <c r="D60" t="n">
-        <v>12.03928232870228</v>
+        <v>11.70921618296491</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.64907373352928</v>
+        <v>28.10362100458615</v>
       </c>
       <c r="D61" t="n">
-        <v>13.02784095372525</v>
+        <v>12.54765276988717</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.17318792169172</v>
+        <v>27.98973467529738</v>
       </c>
       <c r="D62" t="n">
-        <v>11.45928559618347</v>
+        <v>12.00236733642612</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.96944153806759</v>
+        <v>29.7101224501169</v>
       </c>
       <c r="D63" t="n">
-        <v>9.277138479749528</v>
+        <v>12.06235022284499</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>29.44476644182933</v>
+        <v>28.64225432482681</v>
       </c>
       <c r="D64" t="n">
-        <v>12.6203280168574</v>
+        <v>12.01665634517556</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>29.35356477849001</v>
+        <v>25.88176611180932</v>
       </c>
       <c r="D65" t="n">
-        <v>13.05931071936178</v>
+        <v>12.08963760455955</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.90103585519428</v>
+        <v>26.04493515061948</v>
       </c>
       <c r="D66" t="n">
-        <v>11.63363975237545</v>
+        <v>12.61524680165702</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>26.34846353065156</v>
+        <v>24.03754542732721</v>
       </c>
       <c r="D67" t="n">
-        <v>11.03467001974541</v>
+        <v>10.81179035387662</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.58399552516227</v>
+        <v>24.35674382565057</v>
       </c>
       <c r="D68" t="n">
-        <v>13.04546116536676</v>
+        <v>12.37933669479015</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>21.84267903082368</v>
+        <v>24.88374711456082</v>
       </c>
       <c r="D69" t="n">
-        <v>11.49001838773539</v>
+        <v>13.76091550624554</v>
       </c>
     </row>
   </sheetData>
